--- a/docs/cvmcu.uvmx.xlsx
+++ b/docs/cvmcu.uvmx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidOuellet-Poulin\Documents\GitHub\core-v-mcu-uvm\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4A17D-AB23-4CE1-91CA-435D4E545BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949AAC48-D79F-4E62-A409-761CF423AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="100" windowWidth="38620" windowHeight="21360" tabRatio="948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chip@cvmcu" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="449">
   <si>
     <t>Genre</t>
   </si>
@@ -148,18 +148,6 @@
     <t>(rx&gt;a:gpio);(tx&gt;e:gpio)</t>
   </si>
   <si>
-    <t>a/stream/slv</t>
-  </si>
-  <si>
-    <t>i2s</t>
-  </si>
-  <si>
-    <t>datum/i2s</t>
-  </si>
-  <si>
-    <t>tx&gt;e:udma_i2s</t>
-  </si>
-  <si>
     <t>a/stream/qmstr</t>
   </si>
   <si>
@@ -571,9 +559,6 @@
     <t>ip</t>
   </si>
   <si>
-    <t>cvmcu_cam</t>
-  </si>
-  <si>
     <t>Reference Clock</t>
   </si>
   <si>
@@ -1382,6 +1367,12 @@
   </si>
   <si>
     <t>cv_dbg</t>
+  </si>
+  <si>
+    <t>a/mm/slv</t>
+  </si>
+  <si>
+    <t>i2cs[2]</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1711,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -1735,13 +1726,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1758,7 +1749,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
@@ -1774,7 +1765,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -1790,7 +1781,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
@@ -1808,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -1825,7 +1816,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -1842,7 +1833,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
@@ -1860,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
@@ -1880,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1909,62 +1900,60 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1972,39 +1961,39 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,36 +2001,36 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>19</v>
@@ -2049,19 +2038,19 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
@@ -2069,13 +2058,13 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -2089,34 +2078,34 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8025,34 +8014,34 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -8063,14 +8052,14 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>32</v>
@@ -8085,13 +8074,13 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
         <v>4000</v>
@@ -8100,18 +8089,18 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1">
         <v>8000</v>
@@ -8120,18 +8109,18 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1">
         <v>8000</v>
@@ -8140,18 +8129,18 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1">
         <v>7000</v>
@@ -8160,19 +8149,19 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -8181,7 +8170,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -8205,14 +8194,14 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -8221,7 +8210,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -8245,13 +8234,13 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -8260,30 +8249,30 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -8292,13 +8281,13 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -8307,13 +8296,13 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -8322,13 +8311,13 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -8337,125 +8326,125 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -8487,16 +8476,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -8507,10 +8496,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -8518,1618 +8507,1618 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B3">
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B18">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B20">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B21">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B23">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F34" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B40">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B43">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F43" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B44">
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B45">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B46">
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B48">
         <v>24</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F48" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B49">
         <v>25</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B50">
         <v>26</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F50" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B51">
         <v>27</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B52">
         <v>28</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B53">
         <v>29</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B54">
         <v>30</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B55">
         <v>31</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B56">
         <v>32</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B57">
         <v>33</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B58">
         <v>34</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B59">
         <v>35</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B60">
         <v>112</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B61">
         <v>113</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B62">
         <v>114</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B63">
         <v>115</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B64">
         <v>116</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B65">
         <v>117</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B66">
         <v>118</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B67">
         <v>119</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B68">
         <v>120</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B69">
         <v>121</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B70">
         <v>122</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B71">
         <v>123</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B72">
         <v>124</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B73">
         <v>125</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B74">
         <v>126</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B75">
         <v>127</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B76">
         <v>128</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B77">
         <v>129</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B78">
         <v>130</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B79">
         <v>131</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B80">
         <v>132</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B81">
         <v>133</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B82">
         <v>134</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B83">
         <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B84">
         <v>136</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B85">
         <v>137</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B86">
         <v>138</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B87">
         <v>139</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B88">
         <v>140</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B89">
         <v>141</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B90">
         <v>142</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B91">
         <v>143</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B92">
         <v>144</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B93">
         <v>145</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B94">
         <v>146</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B95">
         <v>147</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B96">
         <v>148</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B97">
         <v>149</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B98">
         <v>150</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B99">
         <v>151</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B100">
         <v>152</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B101">
         <v>153</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B102">
         <v>154</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B103">
         <v>155</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B104">
         <v>156</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B105">
         <v>157</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B106">
         <v>158</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B107">
         <v>159</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B108">
         <v>160</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B109">
         <v>161</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B110">
         <v>162</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B111">
         <v>163</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B112">
         <v>164</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B113">
         <v>165</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B114">
         <v>166</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B115">
         <v>167</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B116">
         <v>168</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F116" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10149,7 +10138,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10162,293 +10151,293 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D16" s="6">
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D17" s="6">
         <v>48</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" s="6">
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -10474,162 +10463,162 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6">
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10674,119 +10663,119 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -10794,13 +10783,13 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -10808,13 +10797,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5"/>
@@ -10822,13 +10811,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="6">
         <v>48</v>
@@ -10836,13 +10825,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="6">
         <v>48</v>
@@ -10851,27 +10840,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D14" s="6">
         <v>48</v>
@@ -10900,119 +10889,119 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -11020,13 +11009,13 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -11034,13 +11023,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5"/>
@@ -11048,13 +11037,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="6">
         <v>48</v>
@@ -11062,13 +11051,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="6">
         <v>48</v>
@@ -11077,27 +11066,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D14" s="6">
         <v>48</v>
